--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Gm13306</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3036856666666666</v>
+        <v>0.169054</v>
       </c>
       <c r="H2">
-        <v>0.9110569999999999</v>
+        <v>0.338108</v>
       </c>
       <c r="I2">
-        <v>0.761480523073464</v>
+        <v>0.2998784017861604</v>
       </c>
       <c r="J2">
-        <v>0.8160485478200507</v>
+        <v>0.2245827615387374</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.08462120118822222</v>
+        <v>0.04710644628933334</v>
       </c>
       <c r="R2">
-        <v>0.761590810694</v>
+        <v>0.282638677736</v>
       </c>
       <c r="S2">
-        <v>0.761480523073464</v>
+        <v>0.2998784017861604</v>
       </c>
       <c r="T2">
-        <v>0.8160485478200507</v>
+        <v>0.2245827615387374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.08000349999999999</v>
+        <v>0.3036856666666667</v>
       </c>
       <c r="H3">
-        <v>0.160007</v>
+        <v>0.911057</v>
       </c>
       <c r="I3">
-        <v>0.200605803021242</v>
+        <v>0.5386963477076239</v>
       </c>
       <c r="J3">
-        <v>0.1433208679490338</v>
+        <v>0.605154852825717</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.02229276193233333</v>
+        <v>0.08462120118822224</v>
       </c>
       <c r="R3">
-        <v>0.133756571594</v>
+        <v>0.761590810694</v>
       </c>
       <c r="S3">
-        <v>0.200605803021242</v>
+        <v>0.5386963477076239</v>
       </c>
       <c r="T3">
-        <v>0.1433208679490338</v>
+        <v>0.605154852825717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.01512033333333333</v>
+        <v>0.0166775</v>
       </c>
       <c r="H4">
-        <v>0.045361</v>
+        <v>0.033355</v>
       </c>
       <c r="I4">
-        <v>0.03791367390529397</v>
+        <v>0.02958357711612082</v>
       </c>
       <c r="J4">
-        <v>0.04063058423091565</v>
+        <v>0.02215551838798428</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,16 +691,78 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.004213240562444444</v>
+        <v>0.004647140901666668</v>
       </c>
       <c r="R4">
-        <v>0.037919165062</v>
+        <v>0.02788284541000001</v>
       </c>
       <c r="S4">
-        <v>0.03791367390529397</v>
+        <v>0.02958357711612082</v>
       </c>
       <c r="T4">
-        <v>0.04063058423091565</v>
+        <v>0.02215551838798428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.07432466666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.222974</v>
+      </c>
+      <c r="I5">
+        <v>0.1318416733900949</v>
+      </c>
+      <c r="J5">
+        <v>0.1481068672475613</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2786473333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.8359420000000001</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.02071037016755556</v>
+      </c>
+      <c r="R5">
+        <v>0.186393331508</v>
+      </c>
+      <c r="S5">
+        <v>0.1318416733900949</v>
+      </c>
+      <c r="T5">
+        <v>0.1481068672475613</v>
       </c>
     </row>
   </sheetData>
